--- a/Exchange/OUT/Storage.xlsx
+++ b/Exchange/OUT/Storage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Склад:</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t>Склад 3</t>
+  </si>
+  <si>
+    <t>Склад 4</t>
+  </si>
+  <si>
+    <t>Склад 5</t>
+  </si>
+  <si>
+    <t>Склад 6</t>
   </si>
 </sst>
 </file>
@@ -360,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -386,6 +395,21 @@
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
